--- a/Excel-XLSX/UN-STA.xlsx
+++ b/Excel-XLSX/UN-STA.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>b2K0vI</t>
+    <t>ITco8j</t>
   </si>
   <si>
     <t>0</t>

--- a/Excel-XLSX/UN-STA.xlsx
+++ b/Excel-XLSX/UN-STA.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>ITco8j</t>
+    <t>7N2o2H</t>
   </si>
   <si>
     <t>0</t>

--- a/Excel-XLSX/UN-STA.xlsx
+++ b/Excel-XLSX/UN-STA.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>7N2o2H</t>
+    <t>6Z18oR</t>
   </si>
   <si>
     <t>0</t>
